--- a/참고 데이터/엑셀/서울 시 코로나19 거리두기 단계.xlsx
+++ b/참고 데이터/엑셀/서울 시 코로나19 거리두기 단계.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysw53\Documents\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysw53\Desktop\대딩\1학년\2학기\데이터분석 경진대회\data-analysis\참고 데이터\엑셀\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521073F0-BE6A-4200-AFDB-C1F1BAC2F381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95DFBB8-A4B8-4ACF-ADA1-C7EDF6828C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{09C36045-2049-4A85-B975-62BA997F8BE6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>서울시</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,43 +107,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020.04월~05월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.05월~08월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.08월~09월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.09월~10월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.10~11월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.11월~12월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021.12월~02월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021.02월~06월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021.06~07월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.07월~04월</t>
+    <t>2020.05월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.06월~08월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.11월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.1월~02월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.03월~06월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.07월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.08월~04월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +512,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -548,19 +540,19 @@
         <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>16</v>
@@ -597,16 +589,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -625,7 +617,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
